--- a/EM-CURSOS-Sistemas.xlsx
+++ b/EM-CURSOS-Sistemas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnube1-my.sharepoint.com/personal/lmurillo_itcr_ac_cr/Documents/Area-Sistemas-Programas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\IEM_programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{5F15A671-AEFA-44C5-A5E1-9342B977D079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2000BDA3-BD11-1648-81AE-0DA809699A14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72462574-616E-4FF3-8A73-39F1B01B19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7ACAAB3-85AB-44B0-93AA-5053FA1C90B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A7ACAAB3-85AB-44B0-93AA-5053FA1C90B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>codigo</t>
   </si>
@@ -79,75 +77,8 @@
     <t>Implementar sistemas de automatización industriales, comerciales o domésticos mediante la integración de controladores programables, robots, sistemas de visión, transductores y sistemas informáticos para el  control supervisorio.</t>
   </si>
   <si>
-    <t>1.	Desarrollar sistemas de comunicación industrial entre distintos tipos de dispositivos
-2.	Desarrollar sistemas de automatizados usando técnicas de diseño para procesos continuos o discretos.
-3.	Simular y desarrollar algoritmos para el control de calidad de procesos usando sistemas de visión.
-4.	Integrar distintos controladores o sistemas de monitoreo dentro de un sistema SCADA.
-5.	Simular y desarrollar algoritmos para el control para robots manipuladores, vehículos guidos autónomos (AVG) y  Robots móviles autónomos(AMR).</t>
-  </si>
-  <si>
-    <t>1.	Redes de comunicación
-a.	Modelo OSI y sus protocolos
-b.	Protocolos de comunicación modelo TCP/IP. 
-i.	Medios físicos y acceso a red. (Direccionamiento físico, MAC)
-ii.	Nivel de red (IP)
-iii.	Nivel de transporte (TCP)
-iv.	Nivel de aplicación 
-c.	Protocolos de industriales y la pirámide de la automatización
-i.	Redes de campo o sensores
-ii.	Redes de control
-iii.	Redes de supervisión
-iv.	Redes de Operación
-v.	Redes de información
-d.	Topologías de las redes.
-e.	Simulación de redes de computadores
-2.	Manipulación de señales digitales y/o analógicas en PLCs
-a.	Comunicación entre PLCs
-3.	Diseño de sistemas SCADA 
-a.	Levantamiento de requerimientos.
-b.	Definición de topología de red y protocolos.
-c.	Desarrollo de bases de datos.
-d.	Desarrollo de Interfaces gráficas.
-e.	Integración de Interfaces con PLCS.
-f.	Validación de los sistemas.
-4.	Máquinas de visión basadas en cámaras inteligentes
-a.	Levantamiento de requerimientos.
-b.	Geometría de la adquisición de imágenes
-i.	Selección del objetivo en función de la distancia focal, distancia de trabajo, escena y tamaño del sensor CCD.
-ii.	Distorsiones ópticas
-c.	Selección del hardware en función de la resolución deseada.
-d.	Tipo de iluminación y selección.
-e.	Algoritmos de procesamiento, detección y segmentación enfocadas en:
-i.	Detección defectos
-ii.	Clasificación de elementos.
-iii.	Control dimensional.
-iv.	Lectura de códigos barras, datamatrix.
-v.	Detección de posición 
-vi.	Reconocimiento de caracteres alfanuméricos.
-f.	Programación de la secuencia de inspección.
-5.	Robots Industriales
-a.	Tipos de robots manipuladores, AGV y AMR
-i.	Grados de libertad.
-ii.	Cinemática del robot.
-b.	Partes del Robots
-c.	Planeación y calendarización.
-d.	Lenguajes de programación: orientados en la tarea y en el robot.
-e.	Simulación de programas.
-f.	Practica de Robótica
-6.	Modelado y simulación de procesos productivos
-a.	Arboles de ensamble del producto
-b.	Modelado matemático de celda o proceso
-c.	Ambientes de simulación: Tecnomatrix o ARENA.
-d.	Métricas de evaluación de rendimiento</t>
-  </si>
-  <si>
     <t>El modelo pedagógico del ITCR busca que el estudiante adquiera un aprendizaje significativo, constructivista e interaccionista, para lograr este objetivo de aprendizaje el curso utiliza una combinación de la metodología de simulación, la metodología de Inmersión y las metodologías participativas.
 En el curso se desarrollan 3 proyectos colaborativos busca que los estudiantes se inmersan en las tecnologías de automatización.  Los estudiantes usaran utilizarán PLC, sensores, redes industriales, sistemas  SCADA y ambientes de simulación para integrar sus respectivos proyectos. Así mismo existirán don presentaciones orales de temas de investigación y desarrollo donde se muestre la teoría asociada y ejemplos de su uso. Finalmente, el profesor en desarrollará temas complejos con ejemplos demostrativos clases Teórico-Practicas.</t>
-  </si>
-  <si>
-    <t>3 Proyectos  60%
-2 Exposición de investigación  20%
-4 Quices   20%</t>
   </si>
   <si>
     <t>Piedrafita R. (2004) Ingeniería de la automatización industrial. México.  Editorial Alfaomega 
@@ -167,15 +98,6 @@
 La filosofía oriental y su influencia en el manga. Luffy M.D. Nihon Publishers.</t>
   </si>
   <si>
-    <t>Dr. Luis Diego Murillo Soto, e-mail: lmurillo@itcr.ac.cr
-Profesor Catedrático I e Investigador Consolidado 2 del Instituto Tecnológico de Costa Rica
-Doctor en Ingeniería (TEC, 2022)
-Máster en Ciencias de la Ingeniería Eléctrica (UCR, 2016)
-Máster en Computación (TEC, 2004)
-Ingeniero en Mantenimiento Industrial (TEC, 1999)
-Técnico en Electrónica (COVAO, 1994)</t>
-  </si>
-  <si>
     <t>Los transductores están presentes en toda la maquinaria moderna, por lo que los Ingenieros electromecánicos deben conocerlos, identificarlos, seleccionarlos y usarlos correctamente.  Esta asignatura brinda al estudiante conocimiento sobre la correcta selección y aplicación de los distintos tipos de transductores divididos en dos grupos llamados sensores y actuadores.  Por definición los transductores son elementos que convierten distintas formas de energía entre sí, por ejemplo: un motor eléctrico trasforma energía eléctrica en energía mecánica rotacional, o un micrófono transforma una onda sonora a una señal eléctrica. Sin embargo, el curso se enfoca principalmente en el estudio transductores usados para generar señales eléctricas de pequeña potencia a partir de manifestaciones físicas tales como: presión, temperatura, peso, aceleración, movimientos rotacionales o lineales, caudal, densidad, viscosidad, acidez, ondas sonoras, luz, voltaje, corriente, etc. La parte final de curso se enfoca en dispositivos que reciben una señal eléctrica que se transforma en un movimiento.
 Esta signatura se ubica en el tercer semestre de la carrera por lo que tienen un carácter inicial, sin embargo, es fundamental la correcta comprensión de los conocimientos, ya que serán utilizados de forma reiterada durante toda la carrera. Se puede indicar que este curso es base para los cursos de instrumentación, modelado, control eléctrico y automático, mantenimiento basado en la condición, automatización, entre otros; por lo que la asignatura posee un carácter de obligatoriedad.</t>
   </si>
@@ -183,19 +105,8 @@
     <t>Comprender el funcionamiento de los transductores según la situación o aplicación planteada, usando para esto los criterios técnicos entre ellos los errores estáticos y dinámicos de los mismos.</t>
   </si>
   <si>
-    <t>1.	Comprender los principios constructivos de los sensores: resistivos, capacitivos, inductivos, ultrasónicos, electromagnéticos, autogeneradores.
-2.	Conocer el funcionamiento de actuadores magnéticos como los relés y solenoides.
-3.	Comprender las especificaciones técnicas de los transductores.
-4.	Experimentar con transductores para lograr aprendizajes significativos.</t>
-  </si>
-  <si>
     <t>El modelo pedagógico del ITCR busca que el estudiante adquiera un aprendizaje significativo, constructivista e interaccionista, para lograr este objetivo de aprendizaje el curso utiliza una combinación de la metodología de simulación, la metodología de Inmersión y las metodologías participativas.
 Los 3 proyectos colaborativos buscan que los estudiantes experimenten con los transductores, sus características, usos y brinden ejemplos con aplicaciones reales de los mismos. Para esto los estudiantes usaran equipos como multímetros u osciloscopios para medir la respuesta de los sensores. Así mismo las presentaciones orales de un grupo de estudiantes muestran la teoría asociada y ejemplos de aplicaciones del tema signado para el desarrollo. Finalmente, el profesor en desarrollará temas complejos con ejemplos demostrativos, visitas a laboratorio y videos entre otros.</t>
-  </si>
-  <si>
-    <t>2 Proyectos  35%
-3 Exámenes 45%
-2 Exposiciones  20%</t>
   </si>
   <si>
     <t>Pallas-Areny, Ramón. Sensores y Acondicionadores de señal. 4 Ed. Marcombo: Mexico 2007. 
@@ -209,90 +120,6 @@
 Holman, J.P. Experimental Methods for Engineers, 8 ed, MacGraw Hill: Singapore, 2012.</t>
   </si>
   <si>
-    <t>1)	Señales eléctricas y sus mediciones.
-a)	Medición directa e indirecta.
-b)	Valores rms, medio, eficaz.
-2)	Características estáticas de los sensores
-a)	Conceptos de Sensibilidad y Resolución del sensor.
-b)	Conceptos de Intervalo y Alcance de la medición.
-c)	Índice de protección de los sensores.
-d)	Incertidumbre de una medición
-e)	Definición de error.
-i)	Error exactitud y error de precisión
-f)	Tipo de errores de medición
-i)	Error de repetición por dos procesos de calibración.
-ii)	Error de histéresis
-iii)	Error de zonas muertas
-iv)	Error por no linealidad
-v)	Otros errores. Ejemplo: error de fluencia (creep error)
-3)	Sensores industriales discretos de presencia.
-a)	Tipos de sensores discretos: inductivos, capacitivos, fotoeléctricos, ultrasónicos  y mecánicos
-b)	Materiales que detectan según la tecnología usada
-c)	Voltaje de alimentación de sensores
-d)	Conexiones eléctricas de sensores tipo PNP, NPN
-e)	Código de colores del cableado
-f)	Instalación, montaje de sensores
-g)	Rangos de operación, limitaciones y errores presentes
-4)	Características dinámicas en el tiempo de los sensores 
-a)	 Tiempo de subida, tiempo de asentamiento, tiempo al pico, tiempo de retardo, sobrelongación
-b)	Sensores de orden cero 
-c)	Sensores de orden uno 
-d)	Sensores de orden dos 
-e)	Respuesta en el tiempo  de cada tipo de sensor
-f)	Ejemplos de cada tipo de sensor
-5)	Sensores con funcionamiento resistivo
-a)	Tipos de sensores con principio resistivo:
-i)	Potenciómetros
-ii)	Galgas de fuerza
-iii)	Sensores de temperatura RTD
-iv)	Termistores
-v)	Magneto resistores
-vi)	Fotorresistencias LDR
-vii)	Hidrómetros resistivos
-viii)	Sensores de gas resistivos.
-b)	Para cada tipo de sensor se estudia su modelo físico (ecuación)
-c)	Para cada sensor se estudia sus aplicaciones
-6)	Sensores con funcionamiento capacitivo
-a)	Tipos de sensores con principio capacitivo:
-i)	Sensores de capacitancia variable
-ii)	Sensores de capacitancia diferencial
-b)	Para cada tipo de sensor se estudia su modelo físico (ecuación)
-c)	Para cada sensor se estudia sus aplicaciones
-7)	Sensores con funcionamiento electromagnético
-a)	Tipos de sensores inductivos:
-i)	Sensores de reluctancia variable
-ii)	Sensores de corrientes de Eddy
-iii)	Transformadores diferencial variable lineal (LVDT)
-iv)	Synchros, resolvers e Inductosyn
-b)	Tipos de sensores con principio electromegnético:
-i)	Sensores basados en la ley de Faraday
-ii)	Sensores basados en el efecto Hall.
-c)	Para cada tipo de sensor se estudia su modelo físico (ecuación)
-d)	Para cada sensor se estudia sus aplicaciones industriales o en aeronaves.
-8)	Sensores autogeneradores
-a)	Termocuplas
-b)	Sensores pizoeléctricos
-c)	Sensores piroeléctricos
-d)	Sensores fotovoltaicos
-e)	Para cada tipo de sensor se estudia su modelo físico (ecuación)
-f)	Para cada sensor se estudia sus aplicaciones industriales o en aeronaves.
-9)	Otros Sensores 
-a)	Codificadores incremental y absoluto (Encoders)
-b)	Sensores basados en resonancia.
-c)	Sensores basados en juntas semiconductoras
-d)	Sensores basados en ultrasonido.
-e)	Sensores de fibra óptica
-f)	Biosensores
-g)	Aplicaciones y ejemplos.
-10)	Actuadores eléctricos 
-a)	Principios de funcionamiento de:
-i)	Relés de estado sólido y mecánico
-ii)	Solenoides
-iii)	Piezoeléctricos
-11)	Actuadores hidráulicos y neumáticos
-a)	Tipo de válvulas solenoides para control de flujo</t>
-  </si>
-  <si>
     <t>EM2304</t>
   </si>
   <si>
@@ -302,21 +129,7 @@
     <t>Desarrollar en el estudiante habilidades para la gestión de proyectos en ingeniería, en sectores tales como Pymes, empresas nacionales y transnacionales, brindando herramientas que permitan la comunicación con los mandos ejecutivos, de manera que se otorgue el oportuno soporte para la toma de decisiones alineadas con la estrategia de la organización.</t>
   </si>
   <si>
-    <t>1. Definir las herramientas técnico-administrativas, legales y ambientales, para el análisis del entorno (contexto nacional e internacional) en la determinación de oportunidades innovadoras de desarrollo, alineadas con los objetivos y metas estratégicas de la organización.
-2. Aplicar las herramientas de planificación, estimación, implementación, evaluación y seguimiento de proyectos, para la adecuada gestión de un proyecto, basado en literatura correspondiente.
-3. Desarrollar herramientas de análisis de entorno para la optimización máxima de los recursos durante la ejecución de proyectos, estableciendo sus indicadores de gestión.
-4. Explorar las nuevas tendencias y desarrollos en el tema de la gestión de proyectos y su aplicación dependiendo del tipo de proyecto.</t>
-  </si>
-  <si>
     <t>Clases magistrales, análisis de casos, temas de investigación a desarrollar en grupos y/o individual, exámenes cortos.</t>
-  </si>
-  <si>
-    <t>1. Trabajo Final Investigación Individual 75%
-1.1 Avance #1 25%
-1.2 Avance #2 25%
-1.3 Informe final 15%
-1.4 Defensa 10%
-2. Exámenes cortos 25%</t>
   </si>
   <si>
     <t>Sapag Chain N., Sapag Chain R., Sapag Puelma J. (2014). Preparación y evaluación de proyectos. (Sexta edición). España. McGraw-Hill.
@@ -325,59 +138,6 @@
 Gray F. Clifford, Larson W. Erik. (2010). Project Management: The Managerial Process. (Quinta edición). Estados Unidos. McGraw-Hill.</t>
   </si>
   <si>
-    <t>Ing. Sebastián Mata Ortega.
-Ingeniero en Mantenimiento Industrial, con Maestría en Ingeniería Electromecánica con énfasis en Administración de la Energía. 
-semata@itcr.ac.cr
-Consulta: Miércoles 7:30 a.m. – 10:30 a.m.
-SOLO SE ATENDERÁ CONSULTA DE MANERA PRESENCIAL</t>
-  </si>
-  <si>
-    <t>1. Formulación de proyectos. (2 semanas)
-1.1 El estudio de proyectos.
-1.1.1 Definición y características de un proyecto.
-1.1.2 Generación de ideas de proyecto.
-1.1.3 Tipología de los proyectos (público-privado-investigación académica).
-1.1.4 Toma de decisiones asociadas a un proyecto.
-1.1.5 Antecedentes-Problema-Justificación-Objetivos-Metodología.
-1.2 Oportunidades de negocio e investigación.
-1.2.1 El proceso de identificación de oportunidades de negocio e investigación.
-1.2.2 Análisis del contexto local y del contexto internacional.
-1.2.3 Modelo de negocio.
-1.2.4 Estrategias de implementación.
-2. Presupuestos electromecánicos. (2 semanas)
-2.1 Construcción de presupuestos electromecánicos.
-2.1.1 Creación de herramientas para desarrollar presupuestos.
-2.1.2 Casos de estudio de presupuestos.
-3. Evaluación de proyectos. (4 semanas)
-3.1 Alcances del estudio de proyectos.
-3.1.1 Perfil, prefactibilidad, factibilidad.
-3.1.2 Estudios de viabilidad de un proyecto.
-3.2 Técnicas de proyección del mercado.
-3.2.1 Métodos cualitativos y modelos causales para proyección de mercado.
-3.3 Evaluación financiera de proyectos.
-3.3.1 Estimación de costos asociados a un proyecto.
-3.3.2 Estimación de capital de trabajo.
-3.3.3 Construcción de flujos de caja.
-3.3.4 Estimación de horizontes de evaluación.
-3.3.5 Estimación de tasas de descuento para proyectos.
-3.3.6 Determinación de puntos de equilibrio.
-3.3.7 Criterios financieros de evaluación de proyectos.
-4. Gestión de proyectos. (7 semanas)
-4.1 Fundamentos de la gestión de proyectos.
-4.1.1 Ciclo de vida de un proyecto.
-4.1.2 Integración de proyectos con el plan estratégico.
-4.2 Estimación de costos y tiempos del proyecto.
-4.2.1 Lineamientos por seguir en la estimación de costos, tiempos y recursos.
-4.2.2 Estimación ascendente/descendente y métodos para cálculo de costos y tiempos del proyecto.
-4.3 Construcción de redes de proyectos.
-4.3.1 Desarrollo de la red para el proyecto.
-4.3.2 Construcción de una red de proyecto.
-4.3.3 Proceso de cálculo de la red de proyecto.
-5. Nuevas tendencias en formulación y administración de proyectos. (1 semana)
-5.1 Agile Project Management.
-5.1.1 Metodologías tradicionales vs. Metodologías ágiles para administración de proyectos.</t>
-  </si>
-  <si>
     <t>EM2305 Gestión Ingeniería Electromecánica</t>
   </si>
   <si>
@@ -393,57 +153,12 @@
     <t>Clases magistrales, análisis de casos, temas de investigación a desarrollar en grupos y/o individual, exámenes cortos y examenes parciales.</t>
   </si>
   <si>
-    <t>1. Proyecto Final del curso, trabajo escrito 30%
-1.1 Informe escrito 20%
-1.2 Defensa 10%
-2. Exámenes cortos 20%
-3. Examenes parciales.
-3.1 Primer parcial 25%.
-3.2 Segundo parcial 25%</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. INCOSE, A guide for system life cicle processes and activities. (Cuarta Edición). San Diego, EEUU. Wiley.
 2. "Integrated Engineering Asset Management" por Joe E. Amadi-Echendu, Changela Hoohlo, Roger Swan, and Kingsley O. Nnaji-Okpara (2019).
 3. "Maintenance Engineering and Management" por R. Keith Mobley (2017).
 4. "Introduction to Mechanical Engineering" por J. Paulo Davim (2017) </t>
   </si>
   <si>
-    <t>Ing. Carlos Piedra Santamaría.
-Ingeniero en Mantenimiento Industrial, con Maestría en Ingeniería Electromecánica con énfasis en Administración del Mantenimiento. 
-cpiedra@itcr.ac.cr
-Consulta: Miércoles 7:30 a.m. – 10:30 a.m.
-SOLO SE ATENDERÁ CONSULTA DE MANERA PRESENCIAL</t>
-  </si>
-  <si>
-    <t>1. Desarrollar competencias en la gestión integral de sistemas electromecánicos en el estudiante, para la aplicación de metodologías y herramientas reconocidas que permitan la planificación,ejecución y control de un sistema electromecánico, garantizando la entrega exitosa de productos y sistemas que cumplan con los requisitos y estándares de calidad establecidos.
-2. Fomentar el pensamiento sistémico y la integración de disciplinas técnicas que promuevan una comprensión profunda de la interacción entre los componentes eléctricos y mecánicos en sistemas electromecánicos, dando como resultado  su adecuada gestión.
-3. Construir habilidades de liderazgo y trabajo en equipo que faciliten la coordinación entre diferentes áreas funcionales promoviendo una comunicación efectiva dentro de los equipos de trabajo, asegurando un ambiente colaborativo que impulse el éxito del proyecto electromecánico.
-4. Investigar las tendencias emergentes y avances en la gestión de la Ingeniería Electromecánica, analizando su aplicabilidad según las características específicas de cada sistema electromecánico.</t>
-  </si>
-  <si>
-    <t>1. Introducción a la Ingeniería Electromecánica. (5 semanas)
-1.1 Fundamentos de ingeniería electromecánica y estrategias de mantenimiento. 3h
-1.2 Mantenimiento Centrado en la Confiabilidad (RCM). 3h
-1.3 Indicadores de Mantenibilidad,Confiabilidad y Disponibilidad.3h
-1.4 Conceptos básicos de sistemas y su aplicación en ingeniería electromecánica.3h
-1.5 Introducción a los estándares y enfoques de INCOSE en gestión de sistemas. 3h
-2. Procesos de Ingeniería de Sistemas. (3 semanas)
-2.1 Ciclo de vida del sistema según INCOSE.6h
-2.2 Procesos de ingeniería de sistemas según INCOSE. 2h
-2.3 Documentación y gestión de requisitos en ingeniería electromecánica. 1h
-3. Gestión de Riesgos y Fiabilidad. (2 semanas)
-3.1 Identificación y evaluación de riesgos en sistemas electromecánicos.1h
-3.2 Métodos de mitigación y gestión de riesgos. 2h
-3.3 Análisis de fiabilidad y mantenibilidad.3h
-4. Integración de Sistemas. (2 semanas)
-4.1 Estrategias de integración de sistemas electromecánicos.3h
-4.2 Coordinación de subsistemas.3h
-5. Verificación y Validación de Sistemas. (3 semanas)
-5.1 Planificación de verificación y validación. 3 h
-5.2 Técnicas de verificacion y validación de sistemas electromecánicos. 3h
-5.3 Documentación y reporte de resultados. 3h</t>
-  </si>
-  <si>
     <t>EM2307 MBC</t>
   </si>
   <si>
@@ -458,45 +173,6 @@
 3. "Condition Monitoring of Machinery in Non-Stationary Operations: Proceedings of the International Conference on Condition Monitoring of Machinery in Non-Stationary Operations" editado por Robert Randall y Dimitrios Kouroussis (2018).</t>
   </si>
   <si>
-    <t>Ing.Carlos Piedra Santamaría
-Ingeniero en Mantenimiento Industrial, con Maestría en Ingeniería Electromecánica con énfasis en Gestión de Mantenimiento. 
-semata@itcr.ac.cr
-Consulta: Miércoles 7:30 a.m. – 10:30 a.m.
-SOLO SE ATENDERÁ CONSULTA DE MANERA PRESENCIAL</t>
-  </si>
-  <si>
-    <t>1. Desarrollar habilidades en la persona estudiante la comprensión de los  fundamentos teóricos del Mantenimiento Basado en Condición, permitiéndole la adquisición de un conocimiento sólido para su aplicación en estrategias efectivas para la gestión de activos industriales, mediante el estudio de análisis de datos, interpretación de análisis de monitoreo y toma de decisiones.
-2. Desarrollar habilidades en la persona estudiante para el uso de  tecnologías de monitoreo de estado, incluyendo análisis de vibraciones, termografía, análisis de aceite y ultrasonido, de manera que le permita la selección y aplicación mas adecuada para la detección temprana de posibles fallas de funcionamiento , tomando decisiones informadas en la gestión de activos.
-3. Adquirir las habilidades de aprendizaje  para la interpretación de datos de monitoreo de estado , de manera que se identifiquen los patrones de deterioro y predicción de posibles fallas en equipos y maquinaria.
-4. Diseñar programas de Mantenimiento Basado en Condición adaptados a las necesidades específicas de una planta industrial, contribuyendo a la mejora de la eficiencia operativa de la organización</t>
-  </si>
-  <si>
-    <t>1. Introducción al Mantenimiento Basado en Condición. 1 semana
-1,1 Conceptos básicos de Mantenimiento Predictivo y Mantenimiento Basado en Condición.
-1,2 Beneficios y aplicaciones en la industria.
-2. Tecnologías de Monitoreo Estado I. 2 semanas
-2,1 Análisis de vibraciones.
-2,2 Patrones de vibración.
-2,3 Espectros de frecuencia.
-3. Tecnologías de Monitoreo de Estado II. 4 semanas.
-3,1 Tribología (Análisis de aceite).
-3,2 Termografía.
-3,3 Ultrasonido
-4. Interpretación de Datos y Diagnóstico. 3 semanas.
-4,1 Análisis de datos de monitoreo.
-4,2 Identificación de patrones de deterioro.
-4,3. Diagnóstico de posibles fallas.
-5.Implementación de programas de MBC. 3 semanas
-5,1 Diseño de programas de MBC.
-5,2 Integración con sistemas de gestión de mantenimiento existentes.
-5,3 Planificación de recursos y presupuestos.
-6. Mantenimiento Basado en la Condición Avanzado. 2 semanas
-6,1 Tendencias y desarrollos actuales en MBC.
-6,2 Norma ISO 17359
-6,3Uso de tecnologías emergentes y herramientas digitales.
-6,4 Inteligencia artificial y análisis predictivo.</t>
-  </si>
-  <si>
     <t>EM2309</t>
   </si>
   <si>
@@ -508,14 +184,6 @@
   <si>
     <t>Clases magistrales, análisis de casos, temas de investigación a desarrollar en grupos y/o individual.
 También se desarrollará un proyecto de investigación, el cual se debe presentar en forma escrita como parte del trabajo en clase, donde se evidencia la aplicación de los temas desarrollados en clase.</t>
-  </si>
-  <si>
-    <t>1. Trabajo Final Investigación Individual 100%
-1.1 Informe de avance #1 20%
-1.2 Informe de avance #2 20%
-1.3 Informe final 60%
-1.3.1 Trabajo escrito 40%
-1.3.2 Presentación 20%</t>
   </si>
   <si>
     <t>1. MINAE. (2014). VII PLAN NACIONAL DE ENERGÍA 2015-2030. WWW.MINAE.GO.CR: DISPONIBLE http://www.minae.go.cr/recursos/2015/pdf/VII-PNE.pdf
@@ -524,53 +192,6 @@
 4. Base de datos Biblioteca del Tecnológico de Costa Rica.</t>
   </si>
   <si>
-    <t>Ing. Sebastián Mata Ortega.
-Ingeniero en Mantenimiento Industrial, con Maestría en Ingeniería Electromecánica con énfasis en Administración de la Energía. 
-semata@itcr.ac.cr
-Consulta: Martes 1:00 p.m. – 4:00 p.m.
-SOLO SE ATENDERÁ CONSULTA DE MANERA PRESENCIAL</t>
-  </si>
-  <si>
-    <t>1. Introducir los conceptos fundamentales de la gestión de energía, incluyendo la terminología básica, principios y la importancia de una gestión energética eficiente y sostenible.
-2. Analizar las estrategias de descarbonización, su relevancia en la lucha contra el cambio climático y su impacto en las prácticas de gestión de energía.
-3. Profundizar en los detalles, aplicaciones y beneficios de la familia de normas ISO 50000 para la gestión de energía, incluyendo cómo pueden ser implementadas en organizaciones de diversos sectores.
-4. Estudiar diferentes tipos de energías renovables (solar, eólica, hidroeléctrica, biomasa, geotérmica, entre otras), su funcionamiento, aplicaciones prácticas y cómo pueden ser integradas en sistemas de gestión de energía existentes.
-5. Investigar las últimas tecnologías y tendencias en la generación de energía, incluyendo almacenamiento de energía, microredes, y otras innovaciones tecnológicas que están modelando el futuro del sector energético.
-6. Profundizar en la importancia de la gestión sostenible del agua, explorar las normas AWWA para la calidad y gestión del agua potable y su integración en sistemas de gestión ambiental y energética.
-7. Proporcionar las herramientas y conocimientos necesarios para planificar, implementar y evaluar proyectos de gestión de energía, con un enfoque en la sostenibilidad y la eficiencia energética.</t>
-  </si>
-  <si>
-    <t>1. Introducción a la Gestión de Energía. 
-1.1 Conceptos básicos y terminología.
-1.2 Importancia de la eficiencia energética.
-2. Balance de energía.
-2.1 Metodología paso a paso de un balance de energía en distintas fuentes energéticas (vapor, aire comprimido, electricidad, LPG).
-3. Descarbonización y Gestión Energética.
-3.1 Estrategias de descarbonización global.
-3.2 Impacto en la industria energética
-4. La Familia de Normas ISO 50000.
-4.1 Modelos de gestión de energía.
-4.2 Contribución de la famila de normas en la gestión energética.
-4.3 Implementación y certificación.
-5. Energías Renovables
-5.1 Tipos y fuentes de energías renovables.
-5.2 Integración de energías renovables en la gestión de energía.
-6. Evaluación y Mejora de la Eficiencia Energética.
-6.1 Herramientas y técnicas de auditoría energética.
-6.2 Mejoras y optimización de la eficiencia energética.
-7. Gestión Sostenible del Agua Potable.
-7.1 Principios de la gestión sostenible del agua.
-7.2 Normas AWWA: visión general, importancia y aplicación práctica.
-7.3 Tecnologías y prácticas para la eficiencia en el uso y tratamiento del agua.
-7.4 Sinergias entre la eficiencia energética y la gestión eficiente del agua.
-8. Políticas Energéticas y Regulaciones.
-8.1 Marco regulatorio internacional y nacional.
-8.2 Incentivos para la promoción de energías renovables y prácticas de sostenibilidad.
-9. Impacto Social y Económico de la Gestión de Energía.
-9.1 Beneficios económicos de la gestión eficiente de energía.
-9.2 Contribución a la sostenibilidad y responsabilidad social.</t>
-  </si>
-  <si>
     <t>EM2110</t>
   </si>
   <si>
@@ -578,15 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve">Al finalizar el curso la persona estudiante estará en capacidad de desarrollar habilidades prácticas para comprender y diseñar  soluciones de automatización de pequeña y mediana complejidad con una perspectiva analitica de su comportamiento a traves de su implementación y simulación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Simulación de sistemas de eventos discretos.                                                                                                      2-Analisis de estabibilidad en sistemas continuos y discretos.                                                                                       3-Diseño de sistemas de control de procesos continuos.  4- Diseño e implementación de sistemas de control  de eventos discretos.                                                                       5- Comparación de sistemas discretos y continuos.                      6- Implementación de controladores digitales                      7- Programación de  sistemas de eventos discretos y continuos en programadores lógicos controlables. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecciones prácticas realizadas en el laboratorio, en el que estudiante sigue las instrucciones del manual de laboratorio para el desarrollo de las prácticas,  desarrolladas en parejas de estudiantes, haciendo uso de equipos, instrumentos y materiales disponibles  en la escuela. Se espera que las prácticas  representen una comprobación de los conceptos teoricos y aplicaciones vistos en el curso de teoria, lo que quiere decir que este curso debe estar alineado con el curso de teoría. Semanalmente se brindan indicaciones y recomendaciones para el desarrollo de la práctica, de las cuales se tienen que entregar reportes, con las evidencias y análisis de los resulados y experiencias de los estudiantes. A cada estudiante se le asigna la presentación de un laboratorio, con la intención de que investigue y diriga a los demas estudiantes, bajo la supervisión del profesor.  Para el desarrollo de las prácticas propuestas, el estudiante deben investigar por su cuenta,  lo que se requiera hacer y  puede recurir a la hora de consulta, para evacuar consultas y validar lo realizado, de tal forma que durante la lección se enfoque en la presentación de resultados y evidencias de los hallazgos. Semanalmente el profesor evalua el desempeño del estudiante, calificando el trabajo cotidiano  y aporte para cumplir  con los entregables de las prácticas, las cuales deben ser presentadas en forma oral, siendo evaluadas a traves de una rúbrica, utilizando la plataforma de Tec Digital. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajo cotidiano  y presentación oral de las prácticas.                           Examenes cortos                                      Bitacoras de laboratorio </t>
   </si>
   <si>
     <t xml:space="preserve">Guía de laborotorio del curso Laboratorio de Control Eléctrico.                                                                            Manuales de fabricantes de sistemas y equipos de automatización                                                                                                                              Valdivia, Carlos. "Sistemas de control continuos y discretos". Editorial Paraninfo. Madrid. 2012                                                                 Ortiz, Manuel. "Sistemas dinámicos en tiempo continuo" Omnia Science. Mexico. 2015                 Edwards Gonzalo. "Introducción al análsis de sistems dinámicos" Ediciones UC. Santiago Chile. 2013                                               Balabanian, Norman; Carlson, Bradley.                        “Principios de diseño lógico digital”. CECSA: México. 2002.
@@ -594,15 +206,6 @@
 Fabricius, Eugene; “Diseño lógico moderno y teoría de conmutación”. CECSA: México. 1996 García M, Emilio; “Automatización de Procesos Industriales”. Alfaomega: Mexico. 2001.
 Mano, Morris; “Diseño Digital”. 3 era ed. Pearson: México. 2003.                              Romera, Pedro; Lorite, Antonio; Montero, Sebastián “Automatización: Problemas resueltos con autómatas programables”. 3 era ed. Thomson: Madrid. 2003.                         Tocci, Ronald; Widmer, Neal. “Sistemas digitales: Principios y aplicaciones” 8 ava ed. Prentice Hall: México. 2003
 </t>
-  </si>
-  <si>
-    <t>Luis Gómez Guitiérrez. Ingeniero en Mantenimiento industrial. Maestria en Gestión de Activos Físicos. Teléfono 2550 9340. Correo lugomez@itcr.a.cr                              Hora de consulta:  por definir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Al finalizar el curso la persona estudiante estará en capacidad de integrar los conocimientos teoricos, mediante la realizacion de prácticas que demuestran  el comportamiento de sistemas de control y automatización de procesos.     
- 2- Al finalizar  el curso la persona estudiante estará en capacidad de utilizar herramientas de software  para el diseño y simulación de sistemas de control de procesos.   
- 3- Al finalizar el curso la persona estudiante estará en capacidad de aplicar estandares internacionales para el diseño de soluciones de control de procesos. 
- 4- Al finalizar el curso la persona estudiante estará en capacidad de  desarrollar habilidades de trabajo en equipo y comunicación al colaborar con otros estudiantes en prácticas de laboratorio.                                                                                        </t>
   </si>
   <si>
     <t>EM2109</t>
@@ -633,18 +236,6 @@
     <t xml:space="preserve">Al finalizar el curso  la persona  estudiante estará en capacidad de comprender y proponer soluciones de automatización de pequeña y mediana complejidad con una perspectiva analitica de su comportamiento a traves de su implementación y simulación. </t>
   </si>
   <si>
-    <t xml:space="preserve">1- Al finalizar el curso la persona estudiante estará en capacidad de reconocer las características de sistemas de control en eventos continuos y discretos asi como sus aplicaciones.                                                  2. Al finalizar el curso la persona  estudiante estar en capacidad de analizar el comportamiento de sistemas de  control  haciendo uso de herramientas de simulación.                                     3. Al finalizar el curso la persona estudiante estará en capacidad de utilizar herramientas de ingeniería para el diseño de circuitos de  control de procesos industriales.                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Historia y evolucion de los sistemas de control de procesos.                                                                              2. Sistemas analógicos y digitales, conceptos y aplicaciones.                                                                        3. Sistemas dinámicos y continuos, métodos de análisis.                                                                                                    4. Fundamentos teoricos para el diseño,  analisis  y modelado de sistemas discretos.                                                 5. Herramientas de  diseño y simulación  de sistemas discretos.                                                                                  6. Representación de sistemas de control                                                                           7. Fundamentos teoricos para diseño, análisis y modelado de sistemas de eventos continuos.                                                  8. Herramientas de diseño simulación de eventos continuos                                                                                9.Herramientas de diseño y simulación de sistemas de eventos  continuos.                                                             . 10.Controladores lógicos programables para el control  y diseño de sistemas de control de procesos.                                                                  11. Normas y lenguajes estandar de diseño mediante controladores lógicos programables. </t>
-  </si>
-  <si>
-    <t>Clases magistrales por parte del profesor para la exposición de los temas, durante la clase el profesor  propone ejercicios para ser desarrollados por los estudiantes,  adicionalmente se asignan algunos temas complementarios seleccionados, para ser presentados por parte de los estudiantes ante el grupo, como una forma de promover el desarrollo de habilidades blandas, siendo ademas consecuentas con el módelo academico institucional. El desarollo de proyectos se considera importante en el desarrollo del curso, a traves de los cuales los estudiantes pueden desarrolar el espirituo creativo y proponer soluciones a problemas reales de aplicacion en los sectores productivos. La asistencia al curso es opcional. La evaluación del curso es acumulativa a traves de diferentes estrategias evaluativas.</t>
-  </si>
-  <si>
-    <t>Examenes parciales   Tareas            Examenes cortos  Proyecto de investigación</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valdivia, Carlos. "Sistemas de control continuos y discretos". Editorial Paraninfo. Madrid. 2012                                                                 Ortiz, Manuel. "Sistemas dinámicos en tiempo continuo" Omnia Science. Mexico. 2015                 Edwards Gonzalo. "Introducción al análsis de sistems dinámicos" Ediciones UC. Santiago Chile. 2013                                               Balabanian, Norman; Carlson, Bradley.                        “Principios de diseño lógico digital”. CECSA: México. 2002.
 Balcells, Josep; Romeral, José. “Autómatas Programables”. Alfaomega: México. 1998.
 Fabricius, Eugene; “Diseño lógico moderno y teoría de conmutación”. CECSA: México. 1996 García M, Emilio; “Automatización de Procesos Industriales”. Alfaomega: Mexico. 2001.
@@ -652,85 +243,10 @@
 </t>
   </si>
   <si>
-    <t>Luis Gómez Guitiérrez. Ingeniero en Mantenimiento industrial. Maestria en Gestión de Activos Físicos. Teléfono 2550 9340. Correo lugomez@itcr.a.cr                      Hora de consulta:  por definir</t>
-  </si>
-  <si>
     <t>EM2303</t>
   </si>
   <si>
     <t>Este curso introduce a la persona estudiante en el modelado y análisis matemático de sistemas físicos mediante el uso de diversas herramientas teóricas y experimentales. Así mismo, se hace uso de software especializado para la simulación de estos modelos de manera que sea un complemento para el análisis de la respuesta de los sistemas tanto en el dominio del tiempo como en el de la frecuencia. La obtención y análisis de modelos que representen la realidad y permitan derivar conclusiones y predicciones, es un pilar fundamental tanto en el área de las ciencias como en el de la ingeniería. Este curso ofrece además las bases para los cursos de sistemas de control automático, control eléctrico,  mantenimiento basado en la condición, automatización, entre otros.</t>
-  </si>
-  <si>
-    <t>1.	Introducción al modelado y análisis de sistemas
-Introducción a la teoría general de sistemas 
-Importancia del análisis de sistemas en ingeniería
-Concepto de sistema
-Tipos de sistemas
-Variables de un sistema
-Concepto de modelo de un sistema 
-Tipos de modelos
-Obtención de los modelos
-2.	Introducción al espacio de estados
-El concepto de estado
-Propiedades de las variables de estado 
-Linealidad e invarianza en el tiempo 
-Modelado en variables de estado
-Ecuación de estados y salidas
-Elección de las variables de estado
-Respuesta a entrada cero y respuesta a estado cero 
-La función de transferencia 
-La función de transferencia a partir de la respuesta a estado cero
-La ecuación característica del sistema 
-Función de transferencia para sistemas multivariables
-Relaciones entre los modelos matemáticos
-3.	Representación gráfica de modelos
-Diagramas de bloques 
-Simplificación de diagramas de bloques
-El modelo en variables de estado a partir del diagrama de bloques
-Diagramas de flujo
-Propiedades de los diagramas de flujo
-Fórmula de Mason
-4.	Caracterización en el dominio del tiempo
-Análisis de estabilidad
-Representación del retardo en sistemas lineales 
-Sistemas de primer orden 
-Sistemas de segundo orden
-Efecto de los ceros en el sistema
-Concepto de polos dominantes 
-5.	Modelado analítico de sistemas
-Leyes fundamentales
-Balance de masa
-Balance de energía
-Conservación de la cantidad de movimiento
-Otras leyes de conservación
-La red generalizada
-Modelado de sistemas eléctricos
-Modelado de sistemas mecánicos traslacionales
-Modelado de sistemas mecánicos rotacionales
-Conversión entre traslación y rotación
-Modelado de Sistemas electromecánicos
-Modelado de motores DC
-Modelado de sistemas térmicos
-Modelado de sistemas hidráulicos
-Modelos estáticos
-Linealización
-6.	Identificación de sistemas en el dominio del tiempo
-Descripción del problema
-Modelos utilizados en la identificación
-Métodos de identificación en el tiempo
-7.	Análisis en el dominio de la frecuencia
-La respuesta en frecuencia
-El diagrama de Bode
-Aproximación asintótica del diagrama de Bode
-Obtención de la FT a partir del diagrama de Bode
-Diagrama Polar
-8.	Análisis en el espacio de estados
-Transformación de los MVE
-Forma canónica de Jordan
-Análisis de controlabilidad
-Análisis de observabilidad
-Principio de dualidad
-Descomposición de Kalman</t>
   </si>
   <si>
     <t>El modelo pedagógico del ITCR busca que el estudiante adquiera un aprendizaje significativo, constructivista e interaccionista, para lograr este objetivo de aprendizaje el curso utiliza una combinación de la metodología de simulación, la metodología de integración y las metodologías participativas. Por lo que en curso combinará la presentación del contenido por parte de la persona docente, trabajo individual por parte de la persona estudiante, prácticas de laboratorio guiadas y el desarrollo de un proyecto final del curso cuyo objetivo es integral el material visto en este cuso.
@@ -745,17 +261,6 @@
 John Wiley &amp; Sons, 2002.</t>
   </si>
   <si>
-    <t xml:space="preserve">Juan Luis Guerrero Fernández 
-Doctor en filosofía en ciencias (Ph.D.), Universidad de Sheffield, Inglaterra 
-Máster en Ciencias (M. Sc.) en Mecatrónica, Universidad de Ciencias Aplicadas Aachen, Alemania </t>
-  </si>
-  <si>
-    <t>Exámenes (2)	40%
-Tareas (5)	25%
-Prácticas dirigidas (2)	10%
-Proyecto	25%</t>
-  </si>
-  <si>
     <t>EM2306</t>
   </si>
   <si>
@@ -764,70 +269,573 @@
   </si>
   <si>
     <t>Brindar una introducción a los principios, conceptos y técnicas fundamentales necesarios para el análisis y diseño práctico de sistemas de control por realimentación. Se enfatiza el tratamiento de sistemas lineales de una entrada y una salida, para los que se presentan las herramientas clásicas de análisis (e.g., lugar de las raíces, diagrama de Nyquist, diagramas de Bode), y métodos de diseño de controladores clásicos (PI, PID), y modernos (parametrización afín).</t>
-  </si>
-  <si>
-    <t>1.	Comprender el concepto de sistema de control, el de lazo de control realimentado y definir la función de sus componentes.
-2.	Usar herramientas computacionales para la simulación y el diseño de compensadores y reguladores.
-3.	Diseñar compensadores y reguladores utilizando los diferentes métodos en estudio.
-4.	Implementar reguladores y compensadores usando electrónica digital (computadores y microcontroladores).</t>
-  </si>
-  <si>
-    <t>1)	Introducción
-a)	Motivación a Ingeniería en Control
-b)	Reseña histórica de la Teoría de Control
-c)	Tipos de diseños de sistemas de control
-d)	Integración de sistemas
-2)	Principios de realimentación
-a)	El objetivo del control
-b)	Definición del problema de control
-c)	Solución del problema de control vía inversión
-d)	Realimentación con ganancia elevada e inversión
-e)	De lazo abierto a lazo cerrado
-f)	Compromisos en la elección de la ganancia de realimentación
-3)	Modelos, señales y sistemas
-a)	Modelos en control
-b)	Linealización y escalamiento de variables
-c)	Funciones transferencia y diagramas de bloques
-d)	Obtención experimental de modelos
-e)	Respuesta en frecuencia y diagramas de Bode
-4)	Análisis de sistemas realimentados
-a)	Estructuras de realimentación
-b)	Funciones de sensibilidad
-c)	Estabilidad a lazo cerrado en base al polinomio característico
-d)	Estabilidad y análisis polinomial
-e)	Lugar de las raíces
-f)	Estabilidad y respuesta en frecuencia
-g)	Estabilidad relativa: márgenes de estabilidad
-h)	Robustez
-5)	Control PID clásico
-a)	Estructura PID
-b)	Ajuste empírico
-c)	Método de oscilación de Ziegler-Nichols
-d)	Métodos basados en la respuesta al escalón
-e)	Compensadores en atraso-adelanto
-6)	Diseño básico de controladores SISO
-a)	Enfoque polinomial
-b)	Ajuste de PI y PID mediante asignación de polos
-c)	El predictor de Smith
-7)	Limitaciones fundamentales en control SISO
-a)	Sensores
-b)	Actuadores
-c)	Perturbaciones
-d)	Limitaciones debidas a errores en modelado
-e)	Limitaciones estructurales
-8)	Consideraciones estructurales en control SISO
-a)	Modelos de perturbaciones y referencias determinísticas
-b)	Principio del modelo interno para perturbaciones
-c)	Principio del modelo interno para seguimiento de referencias
-d)	Control en avance
-e)	Aplicación industrial de control en avance
-f)	Control en cascada</t>
   </si>
   <si>
     <t>•	Graham Clifford Goodwin, Stefan F. Graebe, Mario E. Salgado; Control System Design; Pearson Education; 2000.
 •	Ogata, Katsuhiko. Ingeniería de control moderna. Pearson-Prentice Hall, México, 1998.
 •	R. Dorf y R. Bishop, Sistemas de Control Moderno, 10 ed., Prentice Hall, 2005. 
 •	F. Golnaraghi, K. Benjamin; Automatic Control Systems; 9ed; Wiley Online Library,2010</t>
+  </si>
+  <si>
+    <t>*Señales eléctricas y sus mediciones.
+**Medición directa e indirecta.
+**Valores rms, medio, eficaz.
+*Características estáticas de los sensores
+**Conceptos de Sensibilidad y Resolución del sensor.
+**Conceptos de Intervalo y Alcance de la medición.
+**Índice de protección de los sensores.
+**Incertidumbre de una medición
+**Definición de error.
+**Error exactitud y error de precisión
+**Tipo de errores de medición
+***Error de repetición por dos procesos de calibración.
+***Error de histéresis
+***Error de zonas muertas
+***Error por no linealidad
+***Otros errores. Ejemplo: error de fluencia (creep error)
+*Sensores industriales discretos de presencia.
+**Tipos de sensores discretos: inductivos, capacitivos, fotoeléctricos, ultrasónicos  y mecánicos
+**Materiales que detectan según la tecnología usada
+**Voltaje de alimentación de sensores
+**Conexiones eléctricas de sensores tipo PNP, NPN
+**Código de colores del cableado
+**Instalación, montaje de sensores
+**Rangos de operación, limitaciones y errores presentes
+*Características dinámicas en el tiempo de los sensores 
+**Tiempo de subida, tiempo de asentamiento, tiempo al pico, tiempo de retardo, sobrelongación
+**Sensores de orden cero 
+**Sensores de orden uno 
+**Sensores de orden dos 
+**Respuesta en el tiempo  de cada tipo de sensor
+**Ejemplos de cada tipo de sensor
+*Sensores con funcionamiento resistivo
+**Tipos de sensores con principio resistivo:
+***Potenciómetros
+***Galgas de fuerza
+***Sensores de temperatura RTD
+***Termistores
+***Magneto resistores
+***Fotorresistencias LDR
+***Hidrómetros resistivos
+***Sensores de gas resistivos.
+**Para cada tipo de sensor se estudia su modelo físico (ecuación)
+**Para cada sensor se estudia sus aplicaciones
+*Sensores con funcionamiento capacitivo
+**Tipos de sensores con principio capacitivo:
+***Sensores de capacitancia variable
+***Sensores de capacitancia diferencial
+**Para cada tipo de sensor se estudia su modelo físico (ecuación)
+**Para cada sensor se estudia sus aplicaciones
+*Sensores con funcionamiento electromagnético
+**Tipos de sensores inductivos:
+***Sensores de reluctancia variable
+***Sensores de corrientes de Eddy
+***Transformadores diferencial variable lineal (LVDT)
+***Synchros, resolvers e Inductosyn
+**Tipos de sensores con principio electromegnético:
+***Sensores basados en la ley de Faraday
+***Sensores basados en el efecto Hall.
+**Para cada tipo de sensor se estudia su modelo físico (ecuación)
+**Para cada sensor se estudia sus aplicaciones industriales o en aeronaves.
+*Sensores autogeneradores
+**Termocuplas
+**Sensores pizoeléctricos
+**Sensores piroeléctricos
+**Sensores fotovoltaicos
+**Para cada tipo de sensor se estudia su modelo físico (ecuación)
+**Para cada sensor se estudia sus aplicaciones industriales o en aeronaves.
+*Otros Sensores 
+**Codificadores incremental y absoluto (Encoders)
+**Sensores basados en resonancia.
+**Sensores basados en juntas semiconductoras
+**Sensores basados en ultrasonido.
+**Sensores de fibra óptica
+**Biosensores
+**Aplicaciones y ejemplos.
+*Actuadores eléctricos 
+**Principios de funcionamiento de:
+***Relés de estado sólido y mecánico
+***Solenoides
+***Piezoeléctricos
+*Actuadores hidráulicos y neumáticos
+**Tipo de válvulas solenoides para control de flujo</t>
+  </si>
+  <si>
+    <t>Comprender los principios constructivos de los sensores: resistivos, capacitivos, inductivos, ultrasónicos, electromagnéticos, autogeneradores.
+Conocer el funcionamiento de actuadores magnéticos como los relés y solenoides.
+Comprender las especificaciones técnicas de los transductores.
+Experimentar con transductores para lograr aprendizajes significativos.</t>
+  </si>
+  <si>
+    <t>Proyectos; 2; 35
+Exámenes; 3; 45 Exposiciones; 2; 20</t>
+  </si>
+  <si>
+    <t>bibtext</t>
+  </si>
+  <si>
+    <t>Desarrollar sistemas de comunicación industrial entre distintos tipos de dispositivos
+Desarrollar sistemas de automatizados usando técnicas de diseño para procesos continuos o discretos.
+Simular y desarrollar algoritmos para el control de calidad de procesos usando sistemas de visión.
+Integrar distintos controladores o sistemas de monitoreo dentro de un sistema SCADA.
+Simular y desarrollar algoritmos para el control para robots manipuladores, vehículos guidos autónomos (AVG) y  Robots móviles autónomos(AMR).</t>
+  </si>
+  <si>
+    <t>Desarrollar competencias en la gestión integral de sistemas electromecánicos en el estudiante, para la aplicación de metodologías y herramientas reconocidas que permitan la planificación,ejecución y control de un sistema electromecánico, garantizando la entrega exitosa de productos y sistemas que cumplan con los requisitos y estándares de calidad establecidos.Fomentar el pensamiento sistémico y la integración de disciplinas técnicas que promuevan una comprensión profunda de la interacción entre los componentes eléctricos y mecánicos en sistemas electromecánicos, dando como resultado  su adecuada gestión.
+Construir habilidades de liderazgo y trabajo en equipo que faciliten la coordinación entre diferentes áreas funcionales promoviendo una comunicación efectiva dentro de los equipos de trabajo, asegurando un ambiente colaborativo que impulse el éxito del proyecto electromecánico.
+Investigar las tendencias emergentes y avances en la gestión de la Ingeniería Electromecánica, analizando su aplicabilidad según las características específicas de cada sistema electromecánico.</t>
+  </si>
+  <si>
+    <t>Desarrollar habilidades en la persona estudiante la comprensión de los  fundamentos teóricos del Mantenimiento Basado en Condición, permitiéndole la adquisición de un conocimiento sólido para su aplicación en estrategias efectivas para la gestión de activos industriales, mediante el estudio de análisis de datos, interpretación de análisis de monitoreo y toma de decisiones.
+Desarrollar habilidades en la persona estudiante para el uso de  tecnologías de monitoreo de estado, incluyendo análisis de vibraciones, termografía, análisis de aceite y ultrasonido, de manera que le permita la selección y aplicación mas adecuada para la detección temprana de posibles fallas de funcionamiento , tomando decisiones informadas en la gestión de activos.
+Adquirir las habilidades de aprendizaje  para la interpretación de datos de monitoreo de estado , de manera que se identifiquen los patrones de deterioro y predicción de posibles fallas en equipos y maquinaria.
+Diseñar programas de Mantenimiento Basado en Condición adaptados a las necesidades específicas de una planta industrial, contribuyendo a la mejora de la eficiencia operativa de la organización</t>
+  </si>
+  <si>
+    <t>Introducir los conceptos fundamentales de la gestión de energía, incluyendo la terminología básica, principios y la importancia de una gestión energética eficiente y sostenible.
+Analizar las estrategias de descarbonización, su relevancia en la lucha contra el cambio climático y su impacto en las prácticas de gestión de energía.
+Profundizar en los detalles, aplicaciones y beneficios de la familia de normas ISO 50000 para la gestión de energía, incluyendo cómo pueden ser implementadas en organizaciones de diversos sectores.
+Estudiar diferentes tipos de energías renovables (solar, eólica, hidroeléctrica, biomasa, geotérmica, entre otras), su funcionamiento, aplicaciones prácticas y cómo pueden ser integradas en sistemas de gestión de energía existentes.
+Investigar las últimas tecnologías y tendencias en la generación de energía, incluyendo almacenamiento de energía, microredes, y otras innovaciones tecnológicas que están modelando el futuro del sector energético.
+Profundizar en la importancia de la gestión sostenible del agua, explorar las normas AWWA para la calidad y gestión del agua potable y su integración en sistemas de gestión ambiental y energética.
+Proporcionar las herramientas y conocimientos necesarios para planificar, implementar y evaluar proyectos de gestión de energía, con un enfoque en la sostenibilidad y la eficiencia energética.</t>
+  </si>
+  <si>
+    <t>Definir las herramientas técnico-administrativas, legales y ambientales, para el análisis del entorno (contexto nacional e internacional) en la determinación de oportunidades innovadoras de desarrollo, alineadas con los objetivos y metas estratégicas de la organización.
+Aplicar las herramientas de planificación, estimación, implementación, evaluación y seguimiento de proyectos, para la adecuada gestión de un proyecto, basado en literatura correspondiente.
+Desarrollar herramientas de análisis de entorno para la optimización máxima de los recursos durante la ejecución de proyectos, estableciendo sus indicadores de gestión.
+Explorar las nuevas tendencias y desarrollos en el tema de la gestión de proyectos y su aplicación dependiendo del tipo de proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al finalizar el curso la persona estudiante estará en capacidad de integrar los conocimientos teoricos, mediante la realizacion de prácticas que demuestran  el comportamiento de sistemas de control y automatización de procesos.     
+Al finalizar  el curso la persona estudiante estará en capacidad de utilizar herramientas de software  para el diseño y simulación de sistemas de control de procesos.   
+Al finalizar el curso la persona estudiante estará en capacidad de aplicar estandares internacionales para el diseño de soluciones de control de procesos. 
+Al finalizar el curso la persona estudiante estará en capacidad de  desarrollar habilidades de trabajo en equipo y comunicación al colaborar con otros estudiantes en prácticas de laboratorio.                                                                                        </t>
+  </si>
+  <si>
+    <t>Comprender el concepto de sistema de control, el de lazo de control realimentado y definir la función de sus componentes.
+Usar herramientas computacionales para la simulación y el diseño de compensadores y reguladores.
+Diseñar compensadores y reguladores utilizando los diferentes métodos en estudio.
+Implementar reguladores y compensadores usando electrónica digital (computadores y microcontroladores).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al finalizar el curso la persona estudiante estará en capacidad de reconocer las características de sistemas de control en eventos continuos y discretos asi como sus aplicaciones. 
+Al finalizar el curso la persona  estudiante estar en capacidad de analizar el comportamiento de sistemas de  control  haciendo uso de herramientas de simulación. 
+Al finalizar el curso la persona estudiante estará en capacidad de utilizar herramientas de ingeniería para el diseño de circuitos de  control de procesos industriales.                                                 </t>
+  </si>
+  <si>
+    <t>*Redes de comunicación
+**Modelo OSI y sus protocolos
+**Protocolos de comunicación modelo TCP/IP. 
+***Medios físicos y acceso a red. (Direccionamiento físico, MAC)
+***Nivel de red (IP)
+***Nivel de transporte (TCP)
+***Nivel de aplicación 
+**Protocolos de industriales y la pirámide de la automatización
+***Redes de campo o sensores
+***Redes de control
+***Redes de supervisión
+***Redes de Operación
+***Redes de información
+**Topologías de las redes.
+**Simulación de redes de computadores
+*Manipulación de señales digitales y/o analógicas en PLCs
+**Comunicación entre PLCs
+*Diseño de sistemas SCADA 
+**Levantamiento de requerimientos.
+**Definición de topología de red y protocolos.
+**Desarrollo de bases de datos.
+**Desarrollo de Interfaces gráficas.
+**Integración de Interfaces con PLCS.
+**Validación de los sistemas.
+*Máquinas de visión basadas en cámaras inteligentes
+**Levantamiento de requerimientos.
+**Geometría de la adquisición de imágenes
+***Selección del objetivo en función de la distancia focal, distancia de trabajo, escena y tamaño del sensor CCD.
+***Distorsiones ópticas
+**Selección del hardware en función de la resolución deseada.
+**Tipo de iluminación y selección.
+**Algoritmos de procesamiento, detección y segmentación enfocadas en:
+***Detección defectos
+***Clasificación de elementos.
+***Control dimensional.
+***Lectura de códigos barras, datamatrix.
+***Detección de posición 
+***Reconocimiento de caracteres alfanuméricos.
+**Programación de la secuencia de inspección.
+*Robots Industriales
+**Tipos de robots manipuladores, AGV y AMR
+***Grados de libertad.
+***Cinemática del robot.
+**Partes del Robots
+**Planeación y calendarización.
+**Lenguajes de programación: orientados en la tarea y en el robot.
+**Simulación de programas.
+**Practica de Robótica
+*Modelado y simulación de procesos productivos
+**Arboles de ensamble del producto
+**Modelado matemático de celda o proceso
+**Ambientes de simulación: Tecnomatrix o ARENA.
+**Métricas de evaluación de rendimiento</t>
+  </si>
+  <si>
+    <t>*Formulación de proyectos. (2 semanas)
+**El estudio de proyectos.
+***Definición y características de un proyecto.
+***Generación de ideas de proyecto.
+***Tipología de los proyectos (público-privado-investigación académica).
+***Toma de decisiones asociadas a un proyecto.
+***Antecedentes-Problema-Justificación-Objetivos-Metodología.
+**Oportunidades de negocio e investigación.
+***El proceso de identificación de oportunidades de negocio e investigación.
+***Análisis del contexto local y del contexto internacional.
+***Modelo de negocio.
+***Estrategias de implementación.
+*Presupuestos electromecánicos. (2 semanas)
+**Construcción de presupuestos electromecánicos.
+***Creación de herramientas para desarrollar presupuestos.
+***Casos de estudio de presupuestos.
+*Evaluación de proyectos. (4 semanas)
+**Alcances del estudio de proyectos.
+***Perfil, prefactibilidad, factibilidad.
+***Estudios de viabilidad de un proyecto.
+**Técnicas de proyección del mercado.
+***Métodos cualitativos y modelos causales para proyección de mercado.
+**Evaluación financiera de proyectos.
+***Estimación de costos asociados a un proyecto.
+***Estimación de capital de trabajo.
+***Construcción de flujos de caja.
+***Estimación de horizontes de evaluación.
+***Estimación de tasas de descuento para proyectos.
+***Determinación de puntos de equilibrio.
+***Criterios financieros de evaluación de proyectos.
+*Gestión de proyectos. (7 semanas)
+**Fundamentos de la gestión de proyectos.
+***Ciclo de vida de un proyecto.
+***Integración de proyectos con el plan estratégico.
+**Estimación de costos y tiempos del proyecto.
+***Lineamientos por seguir en la estimación de costos, tiempos y recursos.
+***Estimación ascendente/descendente y métodos para cálculo de costos y tiempos del proyecto.
+**Construcción de redes de proyectos.
+***Desarrollo de la red para el proyecto.
+***Construcción de una red de proyecto.
+***Proceso de cálculo de la red de proyecto.
+*Nuevas tendencias en formulación y administración de proyectos. (1 semana)
+**Agile Project Management.
+***Metodologías tradicionales vs. Metodologías ágiles para administración de proyectos.</t>
+  </si>
+  <si>
+    <t>*Introducción a la Ingeniería Electromecánica. (5 semanas)
+**Fundamentos de ingeniería electromecánica y estrategias de mantenimiento. 3h
+**Mantenimiento Centrado en la Confiabilidad (RCM). 3h
+**Indicadores de Mantenibilidad,Confiabilidad y Disponibilidad.3h
+**Conceptos básicos de sistemas y su aplicación en ingeniería electromecánica.3h
+**Introducción a los estándares y enfoques de INCOSE en gestión de sistemas. 3h
+*Procesos de Ingeniería de Sistemas. (3 semanas)
+**Ciclo de vida del sistema según INCOSE.6h
+**Procesos de ingeniería de sistemas según INCOSE. 2h
+**Documentación y gestión de requisitos en ingeniería electromecánica. 1h
+*Gestión de Riesgos y Fiabilidad. (2 semanas)
+**Identificación y evaluación de riesgos en sistemas electromecánicos.1h
+**Métodos de mitigación y gestión de riesgos. 2h
+**Análisis de fiabilidad y mantenibilidad.3h
+*Integración de Sistemas. (2 semanas)
+**Estrategias de integración de sistemas electromecánicos.3h
+**Coordinación de subsistemas.3h
+*Verificación y Validación de Sistemas. (3 semanas)
+**Planificación de verificación y validación. 3 h
+**Técnicas de verificacion y validación de sistemas electromecánicos. 3h
+**Documentación y reporte de resultados. 3h</t>
+  </si>
+  <si>
+    <t>*Introducción al Mantenimiento Basado en Condición. 1 semana
+**Conceptos básicos de Mantenimiento Predictivo y Mantenimiento Basado en Condición.
+**Beneficios y aplicaciones en la industria.
+*Tecnologías de Monitoreo Estado I. 2 semanas
+**Análisis de vibraciones.
+**Patrones de vibración.
+**Espectros de frecuencia.
+*Tecnologías de Monitoreo de Estado II. 4 semanas.
+**Tribología (Análisis de aceite).
+**Termografía.
+**Ultrasonido
+*Interpretación de Datos y Diagnóstico. 3 semanas.
+**Análisis de datos de monitoreo.
+**Identificación de patrones de deterioro.
+**Diagnóstico de posibles fallas.
+*Implementación de programas de MBC. 3 semanas
+**Diseño de programas de MBC.
+**Integración con sistemas de gestión de mantenimiento existentes.
+**Planificación de recursos y presupuestos.
+*Mantenimiento Basado en la Condición Avanzado. 2 semanas
+**Tendencias y desarrollos actuales en MBC.
+**Norma ISO 17359
+**Uso de tecnologías emergentes y herramientas digitales.
+**Inteligencia artificial y análisis predictivo.</t>
+  </si>
+  <si>
+    <t>*Introducción a la Gestión de Energía. 
+**Conceptos básicos y terminología.
+**Importancia de la eficiencia energética.
+*Balance de energía.
+**Metodología paso a paso de un balance de energía en distintas fuentes energéticas (vapor, aire comprimido, electricidad, LPG).
+*Descarbonización y Gestión Energética.
+**Estrategias de descarbonización global.
+**Impacto en la industria energética
+*La Familia de Normas ISO 50000.
+**Modelos de gestión de energía.
+**Contribución de la famila de normas en la gestión energética.
+**Implementación y certificación.
+*Energías Renovables
+**Tipos y fuentes de energías renovables.
+**Integración de energías renovables en la gestión de energía.
+*Evaluación y Mejora de la Eficiencia Energética.
+**Herramientas y técnicas de auditoría energética.
+**Mejoras y optimización de la eficiencia energética.
+*Gestión Sostenible del Agua Potable.
+**Principios de la gestión sostenible del agua.
+**Normas AWWA: visión general, importancia y aplicación práctica.
+**Tecnologías y prácticas para la eficiencia en el uso y tratamiento del agua.
+**Sinergias entre la eficiencia energética y la gestión eficiente del agua.
+*Políticas Energéticas y Regulaciones.
+**Marco regulatorio internacional y nacional.
+**Incentivos para la promoción de energías renovables y prácticas de sostenibilidad.
+*Impacto Social y Económico de la Gestión de Energía.
+**Beneficios económicos de la gestión eficiente de energía.
+*Contribución a la sostenibilidad y responsabilidad social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulación de sistemas de eventos discretos.
+Analisis de estabibilidad en sistemas continuos y discretos.
+Diseño de sistemas de control de procesos continuos.
+Diseño e implementación de sistemas de control  de eventos discretos.
+Comparación de sistemas discretos y continuos.
+Implementación de controladores digitales.
+Programación de  sistemas de eventos discretos y continuos en programadores lógicos controlables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia y evolucion de los sistemas de control de procesos.
+Sistemas analógicos y digitales, conceptos y aplicaciones.                                                                         
+Sistemas dinámicos y continuos, métodos de análisis.                                                                                                  
+Fundamentos teoricos para el diseño,  analisis  y modelado de sistemas discretos.                                                 
+Herramientas de  diseño y simulación  de sistemas discretos.                                                                                  
+Representación de sistemas de control                                                                           
+Fundamentos teoricos para diseño, análisis y modelado de sistemas de eventos continuos.                                                  
+Herramientas de diseño simulación de eventos continuos                                                                                
+Herramientas de diseño y simulación de sistemas de eventos  continuos.                                                             
+Controladores lógicos programables para el control  y diseño de sistemas de control de procesos.                                                                  
+Normas y lenguajes estandar de diseño mediante controladores lógicos programables. </t>
+  </si>
+  <si>
+    <t>*Introducción al modelado y análisis de sistemas
+**Introducción a la teoría general de sistemas 
+**Importancia del análisis de sistemas en ingeniería
+**Concepto de sistema
+**Tipos de sistemas
+**Variables de un sistema
+**Concepto de modelo de un sistema 
+**Tipos de modelos
+**Obtención de los modelos
+*Introducción al espacio de estados
+**El concepto de estado
+**Propiedades de las variables de estado 
+**Linealidad e invarianza en el tiempo 
+**Modelado en variables de estado
+**Ecuación de estados y salidas
+**Elección de las variables de estado
+**Respuesta a entrada cero y respuesta a estado cero 
+**La función de transferencia 
+**La función de transferencia a partir de la respuesta a estado cero
+**La ecuación característica del sistema 
+**Función de transferencia para sistemas multivariables
+**Relaciones entre los modelos matemáticos
+*Representación gráfica de modelos
+**Diagramas de bloques 
+**Simplificación de diagramas de bloques
+**El modelo en variables de estado a partir del diagrama de bloques
+**Diagramas de flujo
+**Propiedades de los diagramas de flujo
+**Fórmula de Mason
+*Caracterización en el dominio del tiempo
+**Análisis de estabilidad
+**Representación del retardo en sistemas lineales 
+**Sistemas de primer orden 
+**Sistemas de segundo orden
+**Efecto de los ceros en el sistema
+**Concepto de polos dominantes 
+*Modelado analítico de sistemas
+**Leyes fundamentales
+**Balance de masa
+**Balance de energía
+**Conservación de la cantidad de movimiento
+**Otras leyes de conservación
+**La red generalizada
+**Modelado de sistemas eléctricos
+**Modelado de sistemas mecánicos traslacionales
+**Modelado de sistemas mecánicos rotacionales
+**Conversión entre traslación y rotación
+**Modelado de Sistemas electromecánicos
+**Modelado de motores DC
+**Modelado de sistemas térmicos
+**Modelado de sistemas hidráulicos
+**Modelos estáticos
+**Linealización
+*Identificación de sistemas en el dominio del tiempo
+**Descripción del problema
+**Modelos utilizados en la identificación
+**Métodos de identificación en el tiempo
+*Análisis en el dominio de la frecuencia
+**La respuesta en frecuencia
+**El diagrama de Bode
+**Aproximación asintótica del diagrama de Bode
+**Obtención de la FT a partir del diagrama de Bode
+**Diagrama Polar
+*Análisis en el espacio de estados
+**Transformación de los MVE
+**Forma canónica de Jordan
+**Análisis de controlabilidad
+**Análisis de observabilidad
+**Principio de dualidad
+**Descomposición de Kalman</t>
+  </si>
+  <si>
+    <t>*Introducción
+**Motivación a Ingeniería en Control
+**Reseña histórica de la Teoría de Control
+**Tipos de diseños de sistemas de control
+**Integración de sistemas
+*Principios de realimentación
+**El objetivo del control
+**Definición del problema de control
+**Solución del problema de control vía inversión
+**Realimentación con ganancia elevada e inversión
+**De lazo abierto a lazo cerrado
+**Compromisos en la elección de la ganancia de realimentación
+*Modelos, señales y sistemas
+**Modelos en control
+**Linealización y escalamiento de variables
+**Funciones transferencia y diagramas de bloques
+**Obtención experimental de modelos
+**Respuesta en frecuencia y diagramas de Bode
+*Análisis de sistemas realimentados
+**Estructuras de realimentación
+**Funciones de sensibilidad
+**Estabilidad a lazo cerrado en base al polinomio característico
+**Estabilidad y análisis polinomial
+**Lugar de las raíces
+**Estabilidad y respuesta en frecuencia
+**Estabilidad relativa: márgenes de estabilidad
+**Robustez
+*Control PID clásico
+**Estructura PID
+**Ajuste empírico
+**Método de oscilación de Ziegler-Nichols
+**Métodos basados en la respuesta al escalón
+**Compensadores en atraso-adelanto
+*Diseño básico de controladores SISO
+**Enfoque polinomial
+**Ajuste de PI y PID mediante asignación de polos
+**El predictor de Smith
+*Limitaciones fundamentales en control SISO
+**Sensores
+**Actuadores
+**Perturbaciones
+**Limitaciones debidas a errores en modelado
+**Limitaciones estructurales
+*Consideraciones estructurales en control SISO
+**Modelos de perturbaciones y referencias determinísticas
+**Principio del modelo interno para perturbaciones
+**Principio del modelo interno para seguimiento de referencias
+**Control en avance
+**Aplicación industrial de control en avance
+**Control en cascada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecciones prácticas realizadas en el laboratorio, en el que estudiante sigue las instrucciones del manual de laboratorio para el desarrollo de las prácticas,  desarrolladas en parejas de estudiantes, haciendo uso de equipos, instrumentos y materiales disponibles  en la escuela. Se espera que las prácticas  representen una comprobación de los conceptos teoricos y aplicaciones vistos en el curso de teoria, lo que quiere decir que este curso debe estar alineado con el curso de teoría. 
+Semanalmente se brindan indicaciones y recomendaciones para el desarrollo de la práctica, de las cuales se tienen que entregar reportes, con las evidencias y análisis de los resulados y experiencias de los estudiantes. A cada estudiante se le asigna la presentación de un laboratorio, con la intención de que investigue y diriga a los demas estudiantes, bajo la supervisión del profesor.  Para el desarrollo de las prácticas propuestas, el estudiante deben investigar por su cuenta,  lo que se requiera hacer y  puede recurir a la hora de consulta, para evacuar consultas y validar lo realizado, de tal forma que durante la lección se enfoque en la presentación de resultados y evidencias de los hallazgos. Semanalmente el profesor evalua el desempeño del estudiante, calificando el trabajo cotidiano  y aporte para cumplir  con los entregables de las prácticas, las cuales deben ser presentadas en forma oral, siendo evaluadas a traves de una rúbrica, utilizando la plataforma de Tec Digital. </t>
+  </si>
+  <si>
+    <t>Clases magistrales por parte del profesor para la exposición de los temas, durante la clase el profesor  propone ejercicios para ser desarrollados por los estudiantes,  adicionalmente se asignan algunos temas complementarios seleccionados, para ser presentados por parte de los estudiantes ante el grupo, como una forma de promover el desarrollo de habilidades blandas, siendo ademas consecuentas con el módelo academico institucional. 
+El desarollo de proyectos se considera importante en el desarrollo del curso, a traves de los cuales los estudiantes pueden desarrolar el espirituo creativo y proponer soluciones a problemas reales de aplicacion en los sectores productivos. La asistencia al curso es opcional. La evaluación del curso es acumulativa a traves de diferentes estrategias evaluativas.</t>
+  </si>
+  <si>
+    <t>El modelo pedagógico del ITCR busca que el estudiante adquiera un aprendizaje significativo, constructivista e interaccionista, para lograr este objetivo de aprendizaje el curso utiliza una combinación de la metodología de simulación, la metodología de integración y las metodologías participativas. Por lo que en curso combinará la presentación del contenido por parte de la persona docente, trabajo individual por parte de la persona estudiante, prácticas de laboratorio guiadas y el desarrollo de un proyecto final del curso cuyo objetivo es integral el material visto en este curso.
+Se espera que fuera de clase la persona estudiante trabajará de forma individual repasando la materia, haciendo lecturas, realizando ejercicios y simulaciones y resolviendo problemas; también trabajará en grupos estudiando de forma cooperativa y en el desarrollo del proyecto.</t>
+  </si>
+  <si>
+    <t>Proyectos; 3;  60
+Exposición de investigación; 2; 20
+Quices; 4; 20%</t>
+  </si>
+  <si>
+    <t>Avance #1 TFI; 1; 25
+Avance #2 TFI; 1; 25
+Informe final TFI; 1; 15
+Defensa TFI; 1; 10%
+Exámenes cortos; 1; 25%</t>
+  </si>
+  <si>
+    <t>Informe escrito PFC; 1; 20
+Defensa PFC; 1; 10
+Exámenes cortos; 1; 20
+Primer parcial; 1; 25
+Segundo parcial; 1; 25</t>
+  </si>
+  <si>
+    <t>Avance #1 TFI; 1; 20
+Avance #2 TFI; 1; 20
+Trabajo escrito IF; 1; 40
+Presentación IF; 1; 20</t>
+  </si>
+  <si>
+    <t>Trabajo cotidiano  y presentación oral de las prácticas; 0; 0
+Examenes cortos; 0; 0
+Bitacoras de laboratorio; 0; 0</t>
+  </si>
+  <si>
+    <t>Examenes parciales; 0; 0
+Tareas; 0; 0
+Examenes cortos; 0; 0
+Proyecto de investigación; 0; 0</t>
+  </si>
+  <si>
+    <t>Exámenes; 2; 40
+Tareas; 5; 25 
+Prácticas dirigidas; 2; 10
+Proyecto; 1; 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastián Mata Ortega; Ing; semata@itcr.ac.cr
+*
+Ingeniero en Mantenimiento Industrial, con Maestría en Ingeniería Electromecánica con énfasis en Administración de la Energía. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Piedra Santamaría; Ing; cpiedra@itcr.ac.cr
+*
+Ingeniero en Mantenimiento Industrial, con Maestría en Ingeniería Electromecánica con énfasis en Administración del Mantenimiento. 
+</t>
+  </si>
+  <si>
+    <t>Luis Diego Murillo Soto; Dr.-Ing; lmurillo@itcr.ac.cr
+*Profesor Catedrático I e Investigador Consolidado 2
+Doctor en Ingeniería (TEC, 2022)
+Máster en Ciencias de la Ingeniería Eléctrica (UCR, 2016)
+Máster en Computación (TEC, 2004)
+Ingeniero en Mantenimiento Industrial (TEC, 1999)
+Técnico en Electrónica (COVAO, 1994)
+*lmurillo@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Gómez Guitiérrez; Ing; lugomez@itcr.a.cr
+*
+Ingeniero en Mantenimiento industrial. Maestria en Gestión de Activos Físicos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Luis Guerrero Fernández; Ph. D; jguerrero@itcr.ac.cr
+*
+Doctor en filosofía en ciencias (Ph.D.), Universidad de Sheffield, Inglaterra 
+Máster en Ciencias (M. Sc.) en Mecatrónica, Universidad de Ciencias Aplicadas Aachen, Alemania </t>
   </si>
 </sst>
 </file>
@@ -861,12 +869,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -881,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -909,6 +923,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,7 +944,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1223,26 +1240,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C061A65-647A-438A-807D-EFA5DD6681E2}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.56640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.2265625" customWidth="1"/>
-    <col min="3" max="3" width="23.67578125" customWidth="1"/>
-    <col min="4" max="4" width="24.48046875" customWidth="1"/>
-    <col min="5" max="5" width="27.57421875" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" customWidth="1"/>
-    <col min="7" max="7" width="26.23046875" customWidth="1"/>
-    <col min="8" max="8" width="39.546875" customWidth="1"/>
-    <col min="9" max="9" width="37.80078125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="9" width="39.5703125" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1268,39 +1285,43 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1311,248 +1332,257 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="10" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1561,15 +1591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CFB7395B1EF2924B94F6B258612BBE2F" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="648d67e8475ff0791bb3494fd9ee698a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c67245c-888c-49dd-861e-84e2787ea0bf" xmlns:ns3="36c52baf-bd6c-427b-8075-7aea47324c6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a1e99a3e0d171100583b7cd91bdc544" ns2:_="" ns3:_="">
     <xsd:import namespace="9c67245c-888c-49dd-861e-84e2787ea0bf"/>
@@ -1806,6 +1827,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1818,14 +1848,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E37123-AE26-4B86-96D6-C59C405B5ADB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{326E9430-9EBA-45A1-A8F2-B6ED7A85FA61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1834,6 +1856,21 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="9c67245c-888c-49dd-861e-84e2787ea0bf"/>
     <ds:schemaRef ds:uri="36c52baf-bd6c-427b-8075-7aea47324c6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E37123-AE26-4B86-96D6-C59C405B5ADB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
